--- a/IO.xlsx
+++ b/IO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MosaicApp\SPSZL-PLC-Zakladac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MosaicApp\SinZakladac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C54378-242D-4BA7-AC19-A815FF7B46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA64F40B-057A-48DB-88B8-F5AC193B7C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64A97B4D-A654-4124-AB1E-FD2AD8762B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64A97B4D-A654-4124-AB1E-FD2AD8762B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1367,21 +1367,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51600EDD-51B9-4B52-9D26-A35A9565580D}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H40" sqref="B37:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="G3" s="61"/>
       <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="G4" s="62"/>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="37">
         <v>3</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="H9" s="48"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H10" s="49"/>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>9</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H11" s="50"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="H13" s="49"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23">
         <v>12</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H14" s="50"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="31">
         <v>13</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="33">
         <v>14</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="33">
         <v>15</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="33">
         <v>16</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="35">
         <v>17</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>18</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>25</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>26</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>27</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>28</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>29</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="17">
         <v>30</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <v>31</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>32</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="29">
         <v>33</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>34</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>35</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10">
         <v>36</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
         <v>37</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H33" s="49"/>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <v>38</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="H34" s="50"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="31">
         <v>39</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H35" s="52"/>
     </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="35">
         <v>40</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H36" s="54"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>-1</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>-1</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-1</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-1</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-1</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>-1</v>
       </c>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MosaicApp\SinZakladac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MosaicApp\SPSZL-PLC-Zakladac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA64F40B-057A-48DB-88B8-F5AC193B7C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567DAA4-8966-48F9-BBCD-BCEE541239E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64A97B4D-A654-4124-AB1E-FD2AD8762B5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64A97B4D-A654-4124-AB1E-FD2AD8762B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="159">
   <si>
     <t>Svorkovnice</t>
   </si>
@@ -446,24 +446,15 @@
     <t>Rameno horizontálně nad optočidlem</t>
   </si>
   <si>
-    <t>Start tlačítlo</t>
-  </si>
-  <si>
     <t>Cyklus</t>
   </si>
   <si>
-    <t>IN8</t>
-  </si>
-  <si>
     <t>IN9</t>
   </si>
   <si>
     <t>IN10</t>
   </si>
   <si>
-    <t>Stop tlačítko</t>
-  </si>
-  <si>
     <t>STOP cyklus</t>
   </si>
   <si>
@@ -476,31 +467,52 @@
     <t>Přepínač manuálního ovládání</t>
   </si>
   <si>
-    <t>log. 1 = manuální</t>
-  </si>
-  <si>
-    <t>Step tlačítko</t>
-  </si>
-  <si>
     <t>Krok vpřed</t>
   </si>
   <si>
     <t>pouze u manuálního ovládání</t>
   </si>
   <si>
-    <t>Step tlačítko odblokováno</t>
-  </si>
-  <si>
-    <t>log. 1 v případě zapnutého manuálního ovládání</t>
-  </si>
-  <si>
-    <t>Cyclus jede</t>
-  </si>
-  <si>
-    <t>Cyklus byl odstatován</t>
-  </si>
-  <si>
-    <t>State zakladače není -1</t>
+    <t>Modrá led</t>
+  </si>
+  <si>
+    <t>Zelená led</t>
+  </si>
+  <si>
+    <t>Podsvícení modrého tlačítka</t>
+  </si>
+  <si>
+    <t>Podsvícení zeleného tlačítka</t>
+  </si>
+  <si>
+    <t>IN11</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Zelené tlačítko</t>
+  </si>
+  <si>
+    <t>Červené tlačítko</t>
+  </si>
+  <si>
+    <t>Modré tlačítko</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,8 +606,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -887,11 +905,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,7 +1143,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1367,21 +1512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51600EDD-51B9-4B52-9D26-A35A9565580D}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H40" sqref="B37:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1423,7 +1568,7 @@
       <c r="G3" s="61"/>
       <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1442,7 +1587,7 @@
       <c r="G4" s="62"/>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37">
         <v>3</v>
       </c>
@@ -1459,7 +1604,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>4</v>
       </c>
@@ -1480,7 +1625,7 @@
       </c>
       <c r="H6" s="45"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -1501,7 +1646,7 @@
       </c>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -1522,7 +1667,7 @@
       </c>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -1543,7 +1688,7 @@
       </c>
       <c r="H9" s="48"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>8</v>
       </c>
@@ -1562,7 +1707,7 @@
       </c>
       <c r="H10" s="49"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23">
         <v>9</v>
       </c>
@@ -1581,7 +1726,7 @@
       </c>
       <c r="H11" s="50"/>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -1602,7 +1747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -1621,7 +1766,7 @@
       </c>
       <c r="H13" s="49"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="23">
         <v>12</v>
       </c>
@@ -1640,7 +1785,7 @@
       </c>
       <c r="H14" s="50"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="31">
         <v>13</v>
       </c>
@@ -1661,7 +1806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>14</v>
       </c>
@@ -1682,7 +1827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>15</v>
       </c>
@@ -1703,7 +1848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>16</v>
       </c>
@@ -1724,7 +1869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="35">
         <v>17</v>
       </c>
@@ -1745,7 +1890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="25">
         <v>18</v>
       </c>
@@ -1766,7 +1911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>25</v>
       </c>
@@ -1787,7 +1932,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="27">
         <v>26</v>
       </c>
@@ -1808,7 +1953,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="27">
         <v>27</v>
       </c>
@@ -1829,7 +1974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>28</v>
       </c>
@@ -1850,7 +1995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15">
         <v>29</v>
       </c>
@@ -1871,7 +2016,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <v>30</v>
       </c>
@@ -1892,7 +2037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="29">
         <v>31</v>
       </c>
@@ -1913,7 +2058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
         <v>32</v>
       </c>
@@ -1934,7 +2079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
         <v>33</v>
       </c>
@@ -1955,7 +2100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="19">
         <v>34</v>
       </c>
@@ -1976,7 +2121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>35</v>
       </c>
@@ -1997,7 +2142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>36</v>
       </c>
@@ -2016,7 +2161,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="21">
         <v>37</v>
       </c>
@@ -2037,7 +2182,7 @@
       </c>
       <c r="H33" s="49"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="23">
         <v>38</v>
       </c>
@@ -2058,7 +2203,7 @@
       </c>
       <c r="H34" s="50"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="31">
         <v>39</v>
       </c>
@@ -2079,128 +2224,136 @@
       </c>
       <c r="H35" s="52"/>
     </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="35">
+    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="113">
         <v>40</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="54"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>-1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="121"/>
+      <c r="C37" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="122"/>
+      <c r="F37" s="123" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="122"/>
+      <c r="H37" s="124" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="125"/>
+      <c r="C38" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="119"/>
+      <c r="H38" s="126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="125"/>
+      <c r="C39" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="119"/>
+      <c r="F39" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="119"/>
+      <c r="H39" s="126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="125"/>
+      <c r="C40" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="119"/>
+      <c r="H40" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="H37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>-1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>-1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="125"/>
+      <c r="C41" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D41" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="131"/>
+      <c r="F41" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="126"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="127"/>
+      <c r="C42" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="H39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>-1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D42" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>-1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="113"/>
-      <c r="G41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="132"/>
+      <c r="F42" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="128" t="s">
         <v>124</v>
       </c>
+      <c r="H42" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
